--- a/Répartition Tâches.xlsx
+++ b/Répartition Tâches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Personnes affectées</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Giovanni + Audrey + Marjolaine</t>
+  </si>
+  <si>
+    <t>Intégration</t>
+  </si>
+  <si>
+    <t>Equipe Dev</t>
   </si>
 </sst>
 </file>
@@ -281,13 +287,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0">
-  <autoFilter ref="A1:D15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D16"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tâches" dataDxfId="4"/>
-    <tableColumn id="2" name="Personnes affectées" dataDxfId="3"/>
-    <tableColumn id="3" name="Date de début" dataDxfId="2"/>
-    <tableColumn id="4" name="Durée" dataDxfId="1"/>
+    <tableColumn id="1" name="Tâches" dataDxfId="3"/>
+    <tableColumn id="2" name="Personnes affectées" dataDxfId="2"/>
+    <tableColumn id="3" name="Date de début" dataDxfId="1"/>
+    <tableColumn id="4" name="Durée" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,7 +575,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,10 +847,18 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42376</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/Répartition Tâches.xlsx
+++ b/Répartition Tâches.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Personnes affectées</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Equipe Dev</t>
+  </si>
+  <si>
+    <t>Détermination du design des interfaces</t>
+  </si>
+  <si>
+    <t>Anas + Aude + Mallory + Adil</t>
   </si>
 </sst>
 </file>
@@ -287,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D17"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâches" dataDxfId="3"/>
     <tableColumn id="2" name="Personnes affectées" dataDxfId="2"/>
@@ -575,7 +581,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +696,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>42374</v>
+        <v>42375</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -861,10 +867,18 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5">
+        <v>42374</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
